--- a/Excel/TidsKompleksitet(Gendannet automatisk).xlsx
+++ b/Excel/TidsKompleksitet(Gendannet automatisk).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AD5562-E35A-4AD5-84A8-4D5B3FDE9436}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31020EC8-96D7-4CFB-8B83-9ABC8E1EC9BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>Sum Af Elementer</t>
   </si>
@@ -112,6 +112,21 @@
   <si>
     <t>BHS</t>
   </si>
+  <si>
+    <t>Mergesort</t>
+  </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
+    <t>Stackoverflow</t>
+  </si>
+  <si>
+    <t>Remove(Noah)</t>
+  </si>
+  <si>
+    <t>Remove(Mads)</t>
+  </si>
 </sst>
 </file>
 
@@ -123,7 +138,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0_ ;\-0\ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +161,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +178,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,7 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -186,6 +219,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -584,36 +619,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -625,11 +630,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ark1'!$A$48</c:f>
+              <c:f>'Ark1'!$A$80</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>QuickSort</c:v>
+                  <c:v>Remove(Noah)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -660,7 +665,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$B$40:$J$40</c:f>
+              <c:f>'Ark1'!$B$79:$J$79</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="9"/>
@@ -696,27 +701,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$B$48:$G$48</c:f>
+              <c:f>'Ark1'!$B$80:$J$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1523</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23464</c:v>
+                  <c:v>1088</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1217093</c:v>
+                  <c:v>11515</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103484804</c:v>
+                  <c:v>191577</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1689884</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10951695</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>483882401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,7 +738,124 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C2CA-4387-A58B-996AF22DEB1B}"/>
+              <c16:uniqueId val="{00000009-7FF6-4D05-AEFB-B327F4553057}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$A$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Remove(Mads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$B$79:$J$79</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0_ ;\-0\ ">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0_ ;\-0\ ">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0_ ;\-0\ ">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0_ ;\-0\ ">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0_ ;\-0\ ">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ;\-0\ ">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0_ ;\-0\ ">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$B$81:$J$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>610428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5475932</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58005444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-7FF6-4D05-AEFB-B327F4553057}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -736,11 +867,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="534539520"/>
-        <c:axId val="534541160"/>
+        <c:axId val="240523664"/>
+        <c:axId val="240524320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="534539520"/>
+        <c:axId val="240523664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -797,12 +928,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534541160"/>
+        <c:crossAx val="240524320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="534541160"/>
+        <c:axId val="240524320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,40 +990,11 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534539520"/>
+        <c:crossAx val="240523664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
-          <c:builtInUnit val="tenMillions"/>
-          <c:dispUnitsLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="da-DK"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
+          <c:custUnit val="600000000"/>
         </c:dispUnits>
       </c:valAx>
       <c:spPr>
@@ -903,6 +1005,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3817,10 +3950,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$B$41:$J$41</c:f>
+              <c:f>'Ark1'!$B$41:$L$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1463</c:v>
                 </c:pt>
@@ -3934,10 +4067,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$B$42:$J$42</c:f>
+              <c:f>'Ark1'!$B$42:$L$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1685</c:v>
                 </c:pt>
@@ -4156,10 +4289,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$B$44:$J$44</c:f>
+              <c:f>'Ark1'!$B$44:$L$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1466</c:v>
                 </c:pt>
@@ -4380,31 +4513,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6168</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196</c:v>
+                  <c:v>933</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1360</c:v>
+                  <c:v>104576</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13549</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>133056</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1453653</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13305584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>139987645</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1304297679</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4650,6 +4783,129 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8824-4130-AD68-AB6E11F897EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mergesort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$B$40:$J$40</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0_ ;\-0\ ">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0_ ;\-0\ ">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0_ ;\-0\ ">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0_ ;\-0\ ">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0_ ;\-0\ ">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ;\-0\ ">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0_ ;\-0\ ">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$B$49:$J$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21395</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>336115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2257311</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24473836</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>262076862</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3080607763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8824-4130-AD68-AB6E11F897EC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10733,14 +10989,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>31825</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1217295</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>104217</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>17417</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10769,23 +11025,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>336177</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>534746</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>174858</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>17417</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>71845</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Diagram 10">
+        <xdr:cNvPr id="12" name="Diagram 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2F817C-52B2-4244-9C15-E09B891E88A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B3460D5-EE42-4921-8151-F67EAFDC0657}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11071,10 +11327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC48"/>
+  <dimension ref="A1:XFD110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11086,7 +11342,8 @@
     <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.88671875" customWidth="1"/>
-    <col min="10" max="12" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" customWidth="1"/>
     <col min="13" max="14" width="12.44140625" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" customWidth="1"/>
     <col min="16" max="16" width="15.6640625" customWidth="1"/>
@@ -11536,18 +11793,21 @@
         <v>767</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10 16384:16384" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>28</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
       </c>
+      <c r="C39" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G39" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10 16384:16384" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -11579,7 +11839,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10 16384:16384" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -11599,23 +11859,23 @@
         <v>318068493</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" ref="G41:J42" si="0">F41*100</f>
+        <f>F41*100</f>
         <v>31806849300</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="0"/>
+        <f>G41*100</f>
         <v>3180684930000</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="0"/>
+        <f>H41*100</f>
         <v>318068493000000</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" si="0"/>
+        <f>I41*100</f>
         <v>3.18068493E+16</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10 16384:16384" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -11635,23 +11895,23 @@
         <v>175188606</v>
       </c>
       <c r="G42" s="8">
-        <f t="shared" si="0"/>
+        <f>F42*100</f>
         <v>17518860600</v>
       </c>
       <c r="H42" s="8">
-        <f t="shared" si="0"/>
+        <f>G42*100</f>
         <v>1751886060000</v>
       </c>
       <c r="I42" s="8">
-        <f t="shared" si="0"/>
+        <f>H42*100</f>
         <v>175188606000000</v>
       </c>
       <c r="J42" s="8">
-        <f t="shared" si="0"/>
+        <f>I42*100</f>
         <v>1.75188606E+16</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10 16384:16384" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -11671,7 +11931,7 @@
         <v>78648132</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10 16384:16384" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -11707,7 +11967,7 @@
         <v>1.17081237E+16</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10 16384:16384" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -11739,39 +11999,42 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10 16384:16384" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>25</v>
       </c>
-      <c r="B46">
-        <v>6168</v>
+      <c r="B46" s="10">
+        <v>23</v>
       </c>
       <c r="C46">
-        <v>196</v>
+        <v>933</v>
       </c>
       <c r="D46">
-        <v>1360</v>
-      </c>
-      <c r="E46">
-        <v>13549</v>
-      </c>
-      <c r="F46">
-        <v>133056</v>
-      </c>
-      <c r="G46">
-        <v>1453653</v>
-      </c>
-      <c r="H46">
-        <v>13305584</v>
-      </c>
-      <c r="I46">
-        <v>139987645</v>
-      </c>
-      <c r="J46">
-        <v>1304297679</v>
+        <v>104576</v>
+      </c>
+      <c r="E46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" t="s">
+        <v>32</v>
+      </c>
+      <c r="XFD46" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10 16384:16384" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -11803,7 +12066,7 @@
         <v>4954008616</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10 16384:16384" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -11834,6 +12097,153 @@
       <c r="J48" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>177</v>
+      </c>
+      <c r="D49">
+        <v>1597</v>
+      </c>
+      <c r="E49">
+        <v>21395</v>
+      </c>
+      <c r="F49">
+        <v>336115</v>
+      </c>
+      <c r="G49">
+        <v>2257311</v>
+      </c>
+      <c r="H49">
+        <v>24473836</v>
+      </c>
+      <c r="I49">
+        <v>262076862</v>
+      </c>
+      <c r="J49">
+        <v>3080607763</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="6">
+        <v>10</v>
+      </c>
+      <c r="C79" s="6">
+        <v>100</v>
+      </c>
+      <c r="D79" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E79" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F79" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G79" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="H79" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="I79" s="7">
+        <v>100000000</v>
+      </c>
+      <c r="J79" s="7">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>17</v>
+      </c>
+      <c r="D80">
+        <v>156</v>
+      </c>
+      <c r="E80">
+        <v>1088</v>
+      </c>
+      <c r="F80">
+        <v>11515</v>
+      </c>
+      <c r="G80">
+        <v>191577</v>
+      </c>
+      <c r="H80">
+        <v>1689884</v>
+      </c>
+      <c r="I80">
+        <v>10951695</v>
+      </c>
+      <c r="J80">
+        <v>483882401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>12</v>
+      </c>
+      <c r="D81">
+        <v>46</v>
+      </c>
+      <c r="E81">
+        <v>620</v>
+      </c>
+      <c r="F81">
+        <v>5619</v>
+      </c>
+      <c r="G81">
+        <v>136667</v>
+      </c>
+      <c r="H81">
+        <v>610428</v>
+      </c>
+      <c r="I81">
+        <v>5475932</v>
+      </c>
+      <c r="J81">
+        <v>58005444</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
